--- a/dashboard_loader/skills_higher_qual_uploader/skills_higher_qual.xlsx
+++ b/dashboard_loader/skills_higher_qual_uploader/skills_higher_qual.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Description" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t xml:space="preserve">Increase the number of higher level qualifications</t>
   </si>
@@ -95,22 +95,31 @@
     <t xml:space="preserve">COAG’s target means that the number of Diploma and Advanced Diploma completions needs to increase to 107,948 by 2020. </t>
   </si>
   <si>
-    <t xml:space="preserve">Nationally from 2009 to 2015, there was an increase of 8,126 Diploma and Advanced Diploma completions. However, if the rate of increase from 2009–2015 continues, COAG will not meet its 2020 target. Nationally, the number of completions has decreased since 2012.</t>
+    <t xml:space="preserve">Nationally from 2009 to 2016, there was a decrease of 7,224 Diploma and Advanced Diploma completions. Factors identified as affecting the likelihood of completing a VET qualification include availability of mutiple modes of attendance, where the course was undertaken as part of an apprenticeship or traineeship and where the course was commenced full-time (Ong and Circelli 2018).</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
+    <t xml:space="preserve">Figures reflect publicly-funded VET which includes domestic and international fee-for-service activity of government VET providers (TAFEs and other government providers).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Figures exclude the domestic and international fee-for-service activity of Community education providers and other registered providers.</t>
   </si>
   <si>
-    <t xml:space="preserve">The 2015 data are preliminary. Final figures will be released by the National Centre for Vocational Education Research in July 2017.  </t>
+    <t xml:space="preserve">The 2016 data are preliminary, 2015 data have been updated with final figures.  </t>
   </si>
   <si>
     <t xml:space="preserve">Source</t>
   </si>
   <si>
     <t xml:space="preserve">NCVER (unpublished) National VET provider collection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ong, A. and Circelli, M. 2018, What factors explain the likelihood of completing a VET qualification?, National Centre for Vocational Education Research, Adelaide.</t>
   </si>
 </sst>
 </file>
@@ -120,11 +129,11 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="########\ ###\ ##0.0;\-########\ ###\ ##0.0;\–"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -147,87 +156,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -241,7 +169,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,74 +178,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -335,7 +206,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -354,201 +225,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -557,18 +328,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.66"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +354,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -618,7 +389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>2009</v>
       </c>
@@ -653,7 +424,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>2009</v>
       </c>
@@ -681,14 +452,12 @@
       <c r="I4" s="6" t="n">
         <v>366</v>
       </c>
-      <c r="J4" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" s="6"/>
       <c r="K4" s="6" t="n">
         <v>9119</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>2009</v>
       </c>
@@ -723,7 +492,7 @@
         <v>53974</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>2010</v>
       </c>
@@ -758,7 +527,7 @@
         <v>55557</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>2010</v>
       </c>
@@ -793,7 +562,7 @@
         <v>10707</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>2010</v>
       </c>
@@ -828,7 +597,7 @@
         <v>66264</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>2011</v>
       </c>
@@ -863,7 +632,7 @@
         <v>70863</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>2011</v>
       </c>
@@ -898,7 +667,7 @@
         <v>12841</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>2011</v>
       </c>
@@ -933,7 +702,7 @@
         <v>83704</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>2012</v>
       </c>
@@ -968,7 +737,7 @@
         <v>75975</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>2012</v>
       </c>
@@ -1003,7 +772,7 @@
         <v>12808</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>2012</v>
       </c>
@@ -1038,7 +807,7 @@
         <v>88783</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>2013</v>
       </c>
@@ -1073,7 +842,7 @@
         <v>68267</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>2013</v>
       </c>
@@ -1108,7 +877,7 @@
         <v>11241</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>2013</v>
       </c>
@@ -1143,250 +912,338 @@
         <v>79508</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
         <v>2014</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="6" t="n">
-        <v>20600</v>
-      </c>
-      <c r="D18" s="6" t="n">
-        <v>19100</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>13400</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>5700</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>5900</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>900</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>1600</v>
-      </c>
-      <c r="J18" s="6" t="n">
-        <v>300</v>
-      </c>
-      <c r="K18" s="6" t="n">
-        <v>67500</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
+      <c r="C18" s="9" t="n">
+        <v>20578</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>19128</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>13374</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>5710</v>
+      </c>
+      <c r="G18" s="9" t="n">
+        <v>5896</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>850</v>
+      </c>
+      <c r="I18" s="9" t="n">
+        <v>1568</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>348</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>67452</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="n">
         <v>2014</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="6" t="n">
-        <v>3200</v>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>4000</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>800</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>900</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>900</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>400</v>
-      </c>
-      <c r="J19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6" t="n">
-        <v>10400</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+      <c r="C19" s="9" t="n">
+        <v>3184</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>4010</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>843</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>884</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>928</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>127</v>
+      </c>
+      <c r="I19" s="9" t="n">
+        <v>434</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>10439</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="n">
         <v>2014</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="6" t="n">
-        <f aca="false">SUM(C18,C19)</f>
-        <v>23800</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <f aca="false">SUM(D18,D19)</f>
-        <v>23100</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <f aca="false">SUM(E18,E19)</f>
-        <v>14200</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <f aca="false">SUM(F18,F19)</f>
-        <v>6600</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <f aca="false">SUM(G18,G19)</f>
-        <v>6800</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <f aca="false">SUM(H18,H19)</f>
-        <v>1000</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <f aca="false">SUM(I18,I19)</f>
-        <v>2000</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <f aca="false">SUM(J18,J19)</f>
-        <v>300</v>
-      </c>
-      <c r="K20" s="6" t="n">
-        <f aca="false">SUM(K18,K19)</f>
-        <v>77900</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
+      <c r="C20" s="9" t="n">
+        <v>23762</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>23138</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>14217</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>6594</v>
+      </c>
+      <c r="G20" s="9" t="n">
+        <v>6824</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>977</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>2002</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>377</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>77891</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="n">
         <v>2015</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="7" t="n">
-        <v>14200</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>19200</v>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>9000</v>
-      </c>
-      <c r="F21" s="7" t="n">
-        <v>5500</v>
-      </c>
-      <c r="G21" s="7" t="n">
-        <v>3500</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <v>600</v>
-      </c>
-      <c r="I21" s="7" t="n">
-        <v>1500</v>
-      </c>
-      <c r="J21" s="7" t="n">
-        <v>200</v>
-      </c>
-      <c r="K21" s="7" t="n">
-        <v>53900</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+      <c r="C21" s="9" t="n">
+        <v>15062</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>19857</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>9355</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>5788</v>
+      </c>
+      <c r="G21" s="9" t="n">
+        <v>3742</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>669</v>
+      </c>
+      <c r="I21" s="9" t="n">
+        <v>1537</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>244</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>56254</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="n">
         <v>2015</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="7" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D22" s="7" t="n">
-        <v>4100</v>
-      </c>
-      <c r="E22" s="7" t="n">
-        <v>400</v>
-      </c>
-      <c r="F22" s="7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v>700</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" s="7" t="n">
-        <v>300</v>
-      </c>
-      <c r="J22" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7" t="n">
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
+      <c r="C22" s="9" t="n">
+        <v>1794</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>4046</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>460</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1002</v>
+      </c>
+      <c r="G22" s="9" t="n">
+        <v>770</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>110</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <v>298</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>8498</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="n">
         <v>2015</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="7" t="n">
-        <f aca="false">SUM(C21:C22)</f>
-        <v>15700</v>
-      </c>
-      <c r="D23" s="7" t="n">
-        <f aca="false">SUM(D21:D22)</f>
-        <v>23300</v>
-      </c>
-      <c r="E23" s="7" t="n">
-        <f aca="false">SUM(E21:E22)</f>
-        <v>9400</v>
-      </c>
-      <c r="F23" s="7" t="n">
-        <f aca="false">SUM(F21:F22)</f>
-        <v>6500</v>
-      </c>
-      <c r="G23" s="7" t="n">
-        <f aca="false">SUM(G21:G22)</f>
-        <v>4200</v>
-      </c>
-      <c r="H23" s="7" t="n">
-        <f aca="false">SUM(H21:H22)</f>
-        <v>700</v>
-      </c>
-      <c r="I23" s="7" t="n">
-        <f aca="false">SUM(I21:I22)</f>
-        <v>1800</v>
-      </c>
-      <c r="J23" s="7" t="n">
-        <f aca="false">SUM(J21:J22)</f>
-        <v>200</v>
-      </c>
-      <c r="K23" s="7" t="n">
-        <f aca="false">SUM(K21:K22)</f>
-        <v>62100</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+      <c r="C23" s="9" t="n">
+        <v>16856</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>23903</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>9815</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>6790</v>
+      </c>
+      <c r="G23" s="9" t="n">
+        <v>4512</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>779</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <v>1835</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>262</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>64752</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>13060</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>17815</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>9873</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>4988</v>
+      </c>
+      <c r="G24" s="9" t="n">
+        <v>3171</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>708</v>
+      </c>
+      <c r="I24" s="9" t="n">
+        <v>1365</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>337</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>51317</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>1191</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>3225</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>310</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>551</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <v>583</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>78</v>
+      </c>
+      <c r="I25" s="9" t="n">
+        <v>245</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>6211</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>14251</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>21040</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>10183</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>5539</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <v>3754</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>786</v>
+      </c>
+      <c r="I26" s="9" t="n">
+        <v>1610</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>365</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>57528</v>
+      </c>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
         <v>2020</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7" t="n">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11" t="n">
         <v>107948</v>
       </c>
     </row>
@@ -1406,89 +1263,100 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="132.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="132.1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="10" t="n">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="14" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2"/>
+      <c r="B9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B10" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/dashboard_loader/skills_higher_qual_uploader/skills_higher_qual.xlsx
+++ b/dashboard_loader/skills_higher_qual_uploader/skills_higher_qual.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -237,7 +237,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -266,18 +266,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -299,10 +287,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -330,13 +314,17 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,7 +440,9 @@
       <c r="I4" s="6" t="n">
         <v>366</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" s="6" t="n">
         <v>9119</v>
       </c>
@@ -913,320 +903,320 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+      <c r="A18" s="5" t="n">
         <v>2014</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="6" t="n">
         <v>20578</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="6" t="n">
         <v>19128</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="6" t="n">
         <v>13374</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="6" t="n">
         <v>5710</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="6" t="n">
         <v>5896</v>
       </c>
-      <c r="H18" s="9" t="n">
+      <c r="H18" s="6" t="n">
         <v>850</v>
       </c>
-      <c r="I18" s="9" t="n">
+      <c r="I18" s="6" t="n">
         <v>1568</v>
       </c>
-      <c r="J18" s="9" t="n">
+      <c r="J18" s="6" t="n">
         <v>348</v>
       </c>
-      <c r="K18" s="9" t="n">
+      <c r="K18" s="6" t="n">
         <v>67452</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+      <c r="A19" s="5" t="n">
         <v>2014</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="6" t="n">
         <v>3184</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="6" t="n">
         <v>4010</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="6" t="n">
         <v>843</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="6" t="n">
         <v>884</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="6" t="n">
         <v>928</v>
       </c>
-      <c r="H19" s="9" t="n">
+      <c r="H19" s="6" t="n">
         <v>127</v>
       </c>
-      <c r="I19" s="9" t="n">
+      <c r="I19" s="6" t="n">
         <v>434</v>
       </c>
-      <c r="J19" s="9" t="n">
+      <c r="J19" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="K19" s="9" t="n">
+      <c r="K19" s="6" t="n">
         <v>10439</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+      <c r="A20" s="5" t="n">
         <v>2014</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="6" t="n">
         <v>23762</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="6" t="n">
         <v>23138</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="6" t="n">
         <v>14217</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="6" t="n">
         <v>6594</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G20" s="6" t="n">
         <v>6824</v>
       </c>
-      <c r="H20" s="9" t="n">
+      <c r="H20" s="6" t="n">
         <v>977</v>
       </c>
-      <c r="I20" s="9" t="n">
+      <c r="I20" s="6" t="n">
         <v>2002</v>
       </c>
-      <c r="J20" s="9" t="n">
+      <c r="J20" s="6" t="n">
         <v>377</v>
       </c>
-      <c r="K20" s="9" t="n">
+      <c r="K20" s="6" t="n">
         <v>77891</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+      <c r="A21" s="5" t="n">
         <v>2015</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="6" t="n">
         <v>15062</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="6" t="n">
         <v>19857</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="6" t="n">
         <v>9355</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="6" t="n">
         <v>5788</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="G21" s="6" t="n">
         <v>3742</v>
       </c>
-      <c r="H21" s="9" t="n">
+      <c r="H21" s="6" t="n">
         <v>669</v>
       </c>
-      <c r="I21" s="9" t="n">
+      <c r="I21" s="6" t="n">
         <v>1537</v>
       </c>
-      <c r="J21" s="9" t="n">
+      <c r="J21" s="6" t="n">
         <v>244</v>
       </c>
-      <c r="K21" s="9" t="n">
+      <c r="K21" s="6" t="n">
         <v>56254</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+      <c r="A22" s="5" t="n">
         <v>2015</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="6" t="n">
         <v>1794</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="6" t="n">
         <v>4046</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="6" t="n">
         <v>460</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="6" t="n">
         <v>1002</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="G22" s="6" t="n">
         <v>770</v>
       </c>
-      <c r="H22" s="9" t="n">
+      <c r="H22" s="6" t="n">
         <v>110</v>
       </c>
-      <c r="I22" s="9" t="n">
+      <c r="I22" s="6" t="n">
         <v>298</v>
       </c>
-      <c r="J22" s="9" t="n">
+      <c r="J22" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="K22" s="9" t="n">
+      <c r="K22" s="6" t="n">
         <v>8498</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+      <c r="A23" s="5" t="n">
         <v>2015</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="6" t="n">
         <v>16856</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="6" t="n">
         <v>23903</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E23" s="6" t="n">
         <v>9815</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="6" t="n">
         <v>6790</v>
       </c>
-      <c r="G23" s="9" t="n">
+      <c r="G23" s="6" t="n">
         <v>4512</v>
       </c>
-      <c r="H23" s="9" t="n">
+      <c r="H23" s="6" t="n">
         <v>779</v>
       </c>
-      <c r="I23" s="9" t="n">
+      <c r="I23" s="6" t="n">
         <v>1835</v>
       </c>
-      <c r="J23" s="9" t="n">
+      <c r="J23" s="6" t="n">
         <v>262</v>
       </c>
-      <c r="K23" s="9" t="n">
+      <c r="K23" s="6" t="n">
         <v>64752</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+      <c r="A24" s="5" t="n">
         <v>2016</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="6" t="n">
         <v>13060</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="6" t="n">
         <v>17815</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="6" t="n">
         <v>9873</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="6" t="n">
         <v>4988</v>
       </c>
-      <c r="G24" s="9" t="n">
+      <c r="G24" s="6" t="n">
         <v>3171</v>
       </c>
-      <c r="H24" s="9" t="n">
+      <c r="H24" s="6" t="n">
         <v>708</v>
       </c>
-      <c r="I24" s="9" t="n">
+      <c r="I24" s="6" t="n">
         <v>1365</v>
       </c>
-      <c r="J24" s="9" t="n">
+      <c r="J24" s="6" t="n">
         <v>337</v>
       </c>
-      <c r="K24" s="9" t="n">
+      <c r="K24" s="6" t="n">
         <v>51317</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+      <c r="A25" s="5" t="n">
         <v>2016</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="6" t="n">
         <v>1191</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="6" t="n">
         <v>3225</v>
       </c>
-      <c r="E25" s="9" t="n">
+      <c r="E25" s="6" t="n">
         <v>310</v>
       </c>
-      <c r="F25" s="9" t="n">
+      <c r="F25" s="6" t="n">
         <v>551</v>
       </c>
-      <c r="G25" s="9" t="n">
+      <c r="G25" s="6" t="n">
         <v>583</v>
       </c>
-      <c r="H25" s="9" t="n">
+      <c r="H25" s="6" t="n">
         <v>78</v>
       </c>
-      <c r="I25" s="9" t="n">
+      <c r="I25" s="6" t="n">
         <v>245</v>
       </c>
-      <c r="J25" s="9" t="n">
+      <c r="J25" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="K25" s="9" t="n">
+      <c r="K25" s="6" t="n">
         <v>6211</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+      <c r="A26" s="5" t="n">
         <v>2016</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="6" t="n">
         <v>14251</v>
       </c>
-      <c r="D26" s="9" t="n">
+      <c r="D26" s="6" t="n">
         <v>21040</v>
       </c>
-      <c r="E26" s="9" t="n">
+      <c r="E26" s="6" t="n">
         <v>10183</v>
       </c>
-      <c r="F26" s="9" t="n">
+      <c r="F26" s="6" t="n">
         <v>5539</v>
       </c>
-      <c r="G26" s="9" t="n">
+      <c r="G26" s="6" t="n">
         <v>3754</v>
       </c>
-      <c r="H26" s="9" t="n">
+      <c r="H26" s="6" t="n">
         <v>786</v>
       </c>
-      <c r="I26" s="9" t="n">
+      <c r="I26" s="6" t="n">
         <v>1610</v>
       </c>
-      <c r="J26" s="9" t="n">
+      <c r="J26" s="6" t="n">
         <v>365</v>
       </c>
-      <c r="K26" s="9" t="n">
+      <c r="K26" s="6" t="n">
         <v>57528</v>
       </c>
-      <c r="L26" s="10"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
@@ -1235,15 +1225,15 @@
       <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11" t="n">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8" t="n">
         <v>107948</v>
       </c>
     </row>
@@ -1265,21 +1255,22 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="132.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1287,7 +1278,7 @@
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1295,7 +1286,7 @@
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1303,7 +1294,7 @@
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="11" t="n">
         <v>2016</v>
       </c>
     </row>
@@ -1311,13 +1302,13 @@
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1325,19 +1316,19 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1345,7 +1336,7 @@
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1353,7 +1344,7 @@
       <c r="A11" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="13" t="s">
         <v>32</v>
       </c>
     </row>

--- a/dashboard_loader/skills_higher_qual_uploader/skills_higher_qual.xlsx
+++ b/dashboard_loader/skills_higher_qual_uploader/skills_higher_qual.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">COAG’s target means that the number of Diploma and Advanced Diploma completions needs to increase to 107,948 by 2020. </t>
   </si>
   <si>
-    <t xml:space="preserve">Nationally from 2009 to 2016, there was a decrease of 7,224 Diploma and Advanced Diploma completions. Factors identified as affecting the likelihood of completing a VET qualification include availability of mutiple modes of attendance, where the course was undertaken as part of an apprenticeship or traineeship and where the course was commenced full-time (Ong and Circelli 2018).</t>
+    <t xml:space="preserve">Nationally from 2015 to 2016, there was a decrease of 7,224 Diploma and Advanced Diploma completions. Factors identified as affecting the likelihood of completing a VET qualification include availability of mutiple modes of attendance, where the course was undertaken as part of an apprenticeship or traineeship and where the course was commenced full-time (Ong and Circelli 2018).</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -314,7 +314,7 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -323,7 +323,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -1255,8 +1255,8 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1306,7 +1306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="12" t="s">
         <v>24</v>
